--- a/03-16-25 to 03-22-25 Madison Schedule.xlsx
+++ b/03-16-25 to 03-22-25 Madison Schedule.xlsx
@@ -3583,16 +3583,8 @@
           <t>3)</t>
         </is>
       </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>

--- a/03-16-25 to 03-22-25 Madison Schedule.xlsx
+++ b/03-16-25 to 03-22-25 Madison Schedule.xlsx
@@ -1659,8 +1659,8 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Optima</t>
+          <t>Driver,
+Corolla</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
@@ -2113,13 +2113,14 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Optima</t>
+Silver Van,
+Supv Rx</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
@@ -2179,16 +2180,10 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
@@ -2215,16 +2210,8 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
@@ -3583,8 +3570,16 @@
           <t>3)</t>
         </is>
       </c>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Optima</t>
+        </is>
+      </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>

--- a/03-16-25 to 03-22-25 Madison Schedule.xlsx
+++ b/03-16-25 to 03-22-25 Madison Schedule.xlsx
@@ -1072,7 +1072,11 @@
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Gray van oil change Madison swap at store</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
@@ -2198,7 +2202,11 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Prius oil change -swap with Palmer</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>

--- a/03-16-25 to 03-22-25 Madison Schedule.xlsx
+++ b/03-16-25 to 03-22-25 Madison Schedule.xlsx
@@ -1145,7 +1145,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1562,16 +1562,10 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima,
-Rx</t>
-        </is>
-      </c>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
@@ -1634,7 +1628,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1705,13 +1699,14 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Driver,
-Gray Van</t>
+          <t>Driver, 1/2
+Optima,
+Rx</t>
         </is>
       </c>
       <c r="L23" t="inlineStr"/>
@@ -1779,16 +1774,10 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
@@ -1861,10 +1850,15 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Driver,
+Gray Van</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
@@ -1926,12 +1920,14 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Optima,
+Supv Rx</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
@@ -2000,14 +1996,10 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
@@ -2084,7 +2076,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2157,9 +2149,21 @@
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
@@ -2210,9 +2214,21 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
@@ -2252,11 +2268,7 @@
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
@@ -2301,11 +2313,7 @@
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
@@ -2356,7 +2364,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>FESTIVAL #2707, NEENAH - LIFO</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2409,7 +2417,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>647 S GREEN BAY RD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2467,7 +2475,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/RgXmUUZfEDQ2</t>
+          <t>FESTIVAL #2707, NEENAH - LIFO</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2522,7 +2530,11 @@
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>647 S GREEN BAY RD</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
@@ -2574,21 +2586,13 @@
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/RgXmUUZfEDQ2</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
@@ -2635,21 +2639,13 @@
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Josie</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>4:45 am meet for Sarah &amp; Aivy at Wayside Park, then meet Lori &amp; Josie 5:45 at Pig Waupun</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
@@ -2704,19 +2700,15 @@
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>https://maps.app.goo.gl/xRXXCic4EirNJ6hv9</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>&lt;---Link to Pig Waupun</t>
         </is>
       </c>
       <c r="L39" t="inlineStr"/>
@@ -2785,21 +2777,9 @@
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
@@ -2852,17 +2832,17 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
@@ -2917,17 +2897,17 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store w/ Sarah</t>
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
@@ -2970,17 +2950,17 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>w/ Lori, 5:45 at Pig Waupun</t>
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
@@ -3032,17 +3012,17 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver 1/2, 5:45 @ Pig Waupun</t>
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
@@ -3097,17 +3077,17 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t xml:space="preserve">Driver 1/2  </t>
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
@@ -3163,12 +3143,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3224,12 +3204,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3277,12 +3257,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3320,9 +3300,21 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
@@ -3377,9 +3369,21 @@
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
@@ -3426,13 +3430,21 @@
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
+          <t>Michelle</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
@@ -3491,13 +3503,21 @@
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
@@ -3561,13 +3581,21 @@
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>NEW - AMAN'S BEER + WINE, MUKWONAGO</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr"/>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
@@ -3626,13 +3654,21 @@
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>110 CHAPMAN FARM BLVD</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
@@ -3684,11 +3720,7 @@
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/z31tcvQnoT3Tmp4T9</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
@@ -3729,11 +3761,7 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:45 am at IL Office</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
@@ -3778,11 +3806,7 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>5:30 am meet for Sarah &amp; Aivy at Wayside Park</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
@@ -3871,21 +3895,9 @@
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
@@ -3928,21 +3940,9 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Aivy</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>@ Store w/ Sarah</t>
-        </is>
-      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
@@ -3985,22 +3985,9 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Corolla</t>
-        </is>
-      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
@@ -4039,22 +4026,9 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Corolla</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
@@ -4093,21 +4067,9 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
@@ -4142,21 +4104,9 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Palmer</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
@@ -4191,21 +4141,9 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>

--- a/03-16-25 to 03-22-25 Madison Schedule.xlsx
+++ b/03-16-25 to 03-22-25 Madison Schedule.xlsx
@@ -2206,12 +2206,12 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
         <is>
           <t>Prius oil change -swap with Palmer</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
@@ -2251,21 +2251,9 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -2298,12 +2286,12 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2347,12 +2335,12 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2404,15 +2392,19 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
@@ -2457,20 +2449,15 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Driver,
-Corolla</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
@@ -2515,17 +2502,18 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>@ Store w/ Lori</t>
+          <t>Driver,
+Corolla</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -2572,17 +2560,17 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store w/ Lori</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -2625,12 +2613,12 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2686,12 +2674,12 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2763,12 +2751,12 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2826,9 +2814,21 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
@@ -2941,11 +2941,7 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
@@ -3005,7 +3001,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -3070,7 +3066,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>KELLEY #72, FIRST AVE MOBIL, ROCK FALLS</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -3136,7 +3132,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1308 1ST AVENUE</t>
+          <t>KELLEY #72, FIRST AVE MOBIL, ROCK FALLS</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -3197,7 +3193,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/pvTvLw6CGmx</t>
+          <t>1308 1ST AVENUE</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -3250,7 +3246,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:15 am at IL Office</t>
+          <t>https://goo.gl/maps/pvTvLw6CGmx</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -3297,7 +3293,11 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>*IL Meet is 5:15 am at IL Office</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
@@ -3353,21 +3353,9 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
@@ -3420,15 +3408,19 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
@@ -3493,12 +3485,12 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -3566,20 +3558,15 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry 3</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
@@ -3644,15 +3631,20 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry 3</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
@@ -3705,19 +3697,15 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -3756,9 +3744,21 @@
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>

--- a/03-16-25 to 03-22-25 Madison Schedule.xlsx
+++ b/03-16-25 to 03-22-25 Madison Schedule.xlsx
@@ -1565,7 +1565,12 @@
           <t>Evelin</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
@@ -1580,7 +1585,7 @@
       <c r="O21" t="inlineStr">
         <is>
           <t>Driver,
-Corolla</t>
+Silver Van</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -1658,7 +1663,7 @@
       <c r="S22" t="inlineStr">
         <is>
           <t>Driver,
-Corolla</t>
+Camry 3</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
@@ -1705,7 +1710,7 @@
       <c r="K23" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Optima,
+Silver Van,
 Rx</t>
         </is>
       </c>
@@ -1855,7 +1860,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Driver,
+          <t>Driver, 1/2
 Gray Van</t>
         </is>
       </c>
@@ -1926,7 +1931,7 @@
       <c r="K26" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Optima,
+Silver Van,
 Supv Rx</t>
         </is>
       </c>
@@ -2209,7 +2214,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Prius oil change -swap with Palmer</t>
+          <t>Prius oil change - swap with Palmer</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -2252,7 +2257,11 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>After store - Evelin and Brianna swing by C.G. office for car swaps</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
@@ -2284,21 +2293,9 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -2335,12 +2332,12 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2392,12 +2389,12 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2449,15 +2446,19 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
@@ -2502,20 +2503,15 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Driver,
-Corolla</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
@@ -2560,17 +2556,18 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>@ Store w/ Lori</t>
+          <t>Driver,
+Corolla</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -2613,17 +2610,17 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store w/ Lori</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -2674,12 +2671,12 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2751,12 +2748,12 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2816,12 +2813,12 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2891,9 +2888,21 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
@@ -2999,11 +3008,7 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
@@ -3066,7 +3071,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -3132,7 +3137,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>KELLEY #72, FIRST AVE MOBIL, ROCK FALLS</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -3193,7 +3198,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1308 1ST AVENUE</t>
+          <t>KELLEY #72, FIRST AVE MOBIL, ROCK FALLS</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -3246,7 +3251,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/pvTvLw6CGmx</t>
+          <t>1308 1ST AVENUE</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -3295,7 +3300,7 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:15 am at IL Office</t>
+          <t>https://goo.gl/maps/pvTvLw6CGmx</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -3354,7 +3359,11 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>*IL Meet is 5:15 am at IL Office</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
@@ -3406,21 +3415,9 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
@@ -3485,15 +3482,19 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
@@ -3558,12 +3559,12 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -3631,20 +3632,15 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry 3</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
@@ -3697,15 +3693,20 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry 3</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -3746,19 +3747,15 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -3801,9 +3798,21 @@
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>

--- a/03-16-25 to 03-22-25 Madison Schedule.xlsx
+++ b/03-16-25 to 03-22-25 Madison Schedule.xlsx
@@ -1150,21 +1150,9 @@
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>@ Store, Optima, Equip</t>
-        </is>
-      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1246,17 +1234,17 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>@ Store w/ Sarah</t>
+          <t>@ Store, Optima, Equip</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
@@ -1336,18 +1324,17 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van</t>
+          <t>@ Store w/ Sarah</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
@@ -1426,15 +1413,20 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1500,12 +1492,12 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
@@ -1574,20 +1566,15 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1640,15 +1627,20 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
@@ -1717,19 +1709,15 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Josie</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
@@ -1786,15 +1774,19 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr"/>
+          <t>Josie</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
@@ -1867,12 +1859,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -1938,20 +1930,15 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>@ Store,
-Rx</t>
-        </is>
-      </c>
+          <t>Lorena</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2008,18 +1995,18 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -2092,18 +2079,18 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>@ Store (Driver),
-Supv Rx</t>
+          <t>Driver, 1/2
+Gray Van</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
@@ -2172,17 +2159,18 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store (Driver),
+Supv Rx</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
@@ -2235,9 +2223,21 @@
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
@@ -2302,11 +2302,7 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
@@ -2357,7 +2353,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2414,7 +2410,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>*SALE INVENTORY</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2471,7 +2467,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>BUTERA MARKET #589, PALATINE</t>
+          <t>*SALE INVENTORY</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2524,7 +2520,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2070 N RAND RD</t>
+          <t>BUTERA MARKET #589, PALATINE</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2582,7 +2578,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/vpupTB9xixFKJbGe7</t>
+          <t>2070 N RAND RD</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2635,7 +2631,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:45 am at IL Office</t>
+          <t>https://goo.gl/maps/vpupTB9xixFKJbGe7</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2700,7 +2696,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>LIQUOR MAPPED</t>
+          <t>*IL Meet is 5:45 am at IL Office</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2767,7 +2763,11 @@
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>LIQUOR MAPPED</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
@@ -2843,21 +2843,9 @@
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
@@ -2922,15 +2910,19 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
@@ -2971,20 +2963,15 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Camry 3</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
@@ -3029,17 +3016,18 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Camry 3</t>
         </is>
       </c>
       <c r="P44" t="inlineStr"/>
@@ -3094,18 +3082,17 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Camry 3</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P45" t="inlineStr"/>
@@ -3160,15 +3147,20 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
@@ -3219,8 +3211,16 @@
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>

--- a/03-16-25 to 03-22-25 Madison Schedule.xlsx
+++ b/03-16-25 to 03-22-25 Madison Schedule.xlsx
@@ -2184,7 +2184,11 @@
           <t>Taylor</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr"/>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Until 12:00</t>
+        </is>
+      </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>

--- a/03-16-25 to 03-22-25 Madison Schedule.xlsx
+++ b/03-16-25 to 03-22-25 Madison Schedule.xlsx
@@ -1784,7 +1784,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store w/ Lori</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>

--- a/03-16-25 to 03-22-25 Madison Schedule.xlsx
+++ b/03-16-25 to 03-22-25 Madison Schedule.xlsx
@@ -2005,8 +2005,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store, Driver, Rx</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -2681,7 +2680,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Driver</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>

--- a/03-16-25 to 03-22-25 Madison Schedule.xlsx
+++ b/03-16-25 to 03-22-25 Madison Schedule.xlsx
@@ -4062,9 +4062,21 @@
         </is>
       </c>
       <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>

--- a/03-16-25 to 03-22-25 Madison Schedule.xlsx
+++ b/03-16-25 to 03-22-25 Madison Schedule.xlsx
@@ -3783,7 +3783,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
@@ -3840,7 +3840,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
@@ -3930,7 +3930,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
@@ -3975,7 +3975,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
@@ -4062,21 +4062,9 @@
         </is>
       </c>
       <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>

--- a/03-16-25 to 03-22-25 Madison Schedule.xlsx
+++ b/03-16-25 to 03-22-25 Madison Schedule.xlsx
@@ -1366,21 +1366,9 @@
         </is>
       </c>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>

--- a/03-16-25 to 03-22-25 Madison Schedule.xlsx
+++ b/03-16-25 to 03-22-25 Madison Schedule.xlsx
@@ -3530,7 +3530,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -3664,7 +3664,7 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
@@ -3718,7 +3718,7 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
@@ -3771,7 +3771,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
@@ -3918,12 +3918,12 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Nikki</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, work w/ Marcia</t>
         </is>
       </c>
       <c r="X59" t="inlineStr"/>
